--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit\Documents\GitHub\FantasyFootball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit\Documents\GitHub\FantasyFootball\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Rank</t>
   </si>
@@ -41,36 +41,21 @@
     <t>RCRD</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
-    <t>3-2</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>Do You Even Lift?</t>
   </si>
   <si>
-    <t>Fortuen Favors the Bold</t>
-  </si>
-  <si>
     <t>The Life of Julio</t>
   </si>
   <si>
     <t>Winter Is Never Coming</t>
   </si>
   <si>
-    <t>G - Lit</t>
-  </si>
-  <si>
-    <t>Flacco's Favorite</t>
-  </si>
-  <si>
     <t>Team Suckerpunch</t>
   </si>
   <si>
@@ -80,9 +65,6 @@
     <t>DeandreSSSS Hopkins</t>
   </si>
   <si>
-    <t>Last Manning Standings</t>
-  </si>
-  <si>
     <t>Fae Cthae</t>
   </si>
   <si>
@@ -90,6 +72,42 @@
   </si>
   <si>
     <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>G-Lit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the last column is a measure of how lucky your schedule has been. A larger positive number is more unlucky(you have more loses due to facing higher scoring teams). A larger negative number is more lucky. Numbers between -200 and +200 seem to indicate neither lucky/unlucky or that your record is a good reflection of how your team has 'played'. </t>
+  </si>
+  <si>
+    <t>Last Manning Standing</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>Flacco's Favorites</t>
+  </si>
+  <si>
+    <t>Fortune Favors the Bold</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>LUCK</t>
+  </si>
+  <si>
+    <t>+2</t>
   </si>
 </sst>
 </file>
@@ -129,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,15 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -163,10 +175,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,234 +209,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>194309</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>222122</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Up Arrow 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028949" y="981074"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Up Arrow 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3038474" y="1304924"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Up Arrow 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3038474" y="2524124"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Up Arrow 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3038474" y="2819399"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -551,6 +344,348 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="3057524" y="3752849"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Up Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038474" y="2686049"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>260222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Up Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="2400299"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Up Arrow 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038474" y="1457324"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Up Arrow 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="857249"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Up Arrow 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3047999" y="1762124"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Up Arrow 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3047999" y="2076449"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -887,258 +1022,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F14" s="1">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3:F14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{627B7630-911E-4BCF-8EED-F31632BB4A03}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4 D6 D9:D10 D13" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{627B7630-911E-4BCF-8EED-F31632BB4A03}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -71,9 +71,6 @@
     <t>Taniquetil Eagles</t>
   </si>
   <si>
-    <t>WEEK 5</t>
-  </si>
-  <si>
     <t>G-Lit</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>+2</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
   </si>
 </sst>
 </file>
@@ -181,13 +181,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,13 +1039,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1064,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
-        <v>522</v>
+        <v>-522</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,14 +1097,14 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
-        <v>-51</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1">
-        <v>429</v>
+        <v>-429</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,14 +1137,14 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
-        <v>-89</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1161,10 +1161,10 @@
         <v>-1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
-        <v>-30</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>-4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>1678</v>
+        <v>-1678</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1197,14 +1197,14 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1">
-        <v>-18</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>-220</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,14 +1237,14 @@
       <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1">
-        <v>47</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
@@ -1261,10 +1261,10 @@
         <v>-3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1">
-        <v>-766</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,14 +1277,14 @@
       <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
+      <c r="D13" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="1">
-        <v>-49</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1304,12 +1304,12 @@
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>-285</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Rank</t>
   </si>
@@ -32,21 +32,12 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>Last Week</t>
-  </si>
-  <si>
     <t>CHG</t>
   </si>
   <si>
     <t>RCRD</t>
   </si>
   <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
     <t>Do You Even Lift?</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Last Manning Standing</t>
   </si>
   <si>
-    <t>+4</t>
-  </si>
-  <si>
     <t>+1</t>
   </si>
   <si>
@@ -92,22 +80,28 @@
     <t>Fortune Favors the Bold</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>LUCK</t>
-  </si>
-  <si>
     <t>+2</t>
   </si>
   <si>
     <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>Last Wk</t>
   </si>
 </sst>
 </file>
@@ -152,10 +146,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +193,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,14 +219,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -229,7 +235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3047999" y="3124199"/>
+          <a:off x="3133724" y="3600449"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -237,63 +243,6 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>250697</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Up Arrow 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3047999" y="3448049"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -383,15 +332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -400,7 +349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038474" y="2686049"/>
+          <a:off x="3133724" y="3286124"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -441,14 +390,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>260222</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -457,7 +406,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3047999" y="2400299"/>
+          <a:off x="3133724" y="2676524"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -498,14 +447,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>250697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -514,7 +463,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038474" y="1457324"/>
+          <a:off x="3124199" y="1171574"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -669,13 +618,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>241172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -685,7 +634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3047999" y="2076449"/>
+          <a:off x="3133724" y="1466849"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -1024,23 +973,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1055,24 +1003,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1081,78 +1026,68 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-522</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-429</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -1161,78 +1096,67 @@
         <v>-1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-1678</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>220</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -1241,58 +1165,50 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
+      <c r="B12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F12" s="1">
-        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1301,59 +1217,26 @@
         <v>-1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>285</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F14">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{627B7630-911E-4BCF-8EED-F31632BB4A03}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4 D6 D9:D10 D13" numberStoredAsText="1"/>
+    <ignoredError sqref="D10" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{627B7630-911E-4BCF-8EED-F31632BB4A03}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F3:F14</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,26 +175,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,7 +983,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -986,242 +995,242 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="12">
         <v>-2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>-1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="9">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="12">
         <v>-3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="9">
         <v>11</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>-1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1235,7 +1244,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D10" numberStoredAsText="1"/>
+    <ignoredError sqref="D10 D4:D5" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
   <si>
     <t>Rank</t>
   </si>
@@ -65,9 +67,6 @@
     <t>G-Lit</t>
   </si>
   <si>
-    <t xml:space="preserve">the last column is a measure of how lucky your schedule has been. A larger positive number is more unlucky(you have more loses due to facing higher scoring teams). A larger negative number is more lucky. Numbers between -200 and +200 seem to indicate neither lucky/unlucky or that your record is a good reflection of how your team has 'played'. </t>
-  </si>
-  <si>
     <t>Last Manning Standing</t>
   </si>
   <si>
@@ -83,25 +82,106 @@
     <t>+2</t>
   </si>
   <si>
-    <t>WEEK 6</t>
+    <t>Last Wk</t>
   </si>
   <si>
-    <t>5-2</t>
+    <t>WEEK 8</t>
   </si>
   <si>
-    <t>4-3</t>
+    <t>Team</t>
   </si>
   <si>
-    <t>3-4</t>
+    <t>Weighted Score(Avg+3WkAvg-Std+300*%Wins)</t>
   </si>
   <si>
-    <t>1-6</t>
+    <t>&gt;Taniquetil Eagles</t>
   </si>
   <si>
-    <t>2-5</t>
+    <t>Last Manning Standin</t>
   </si>
   <si>
-    <t>Last Wk</t>
+    <t>DeandreSSSS Hopkin</t>
+  </si>
+  <si>
+    <t>Flacco's  Favorite</t>
+  </si>
+  <si>
+    <t>&gt;Team  Suckerpunch</t>
+  </si>
+  <si>
+    <t>G - Lit</t>
+  </si>
+  <si>
+    <t>&gt;Fortune Favors The Bold</t>
+  </si>
+  <si>
+    <t>WINTER IS NEVER COMING</t>
+  </si>
+  <si>
+    <t>&gt;Do You Even Lift?</t>
+  </si>
+  <si>
+    <t>Last week</t>
+  </si>
+  <si>
+    <t>last-thisweek</t>
+  </si>
+  <si>
+    <t>positives</t>
+  </si>
+  <si>
+    <t>negatives</t>
+  </si>
+  <si>
+    <t>Score-min</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>6-3</t>
   </si>
 </sst>
 </file>
@@ -181,12 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,6 +277,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -222,18 +302,3665 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>negatives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-20.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26.600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-38.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-19.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="291438872"/>
+        <c:axId val="291439528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291438872"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291439528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291439528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291438872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Changes in Power Through</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Season</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeandreSSSS Hopkin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;Taniquetil Eagles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>267.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>279.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>259.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Last Manning Standin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>227.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>239.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flacco's  Favorite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>212.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>251.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;Team  Suckerpunch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>211.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>184.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G - Lit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>225.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WINTER IS NEVER COMING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>178.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>174.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;Fortune Favors The Bold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;Do You Even Lift?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>156.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-92B5-4295-BDF3-4778AC7F081C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288010472"/>
+        <c:axId val="288010800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="288010472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288010800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="288010800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="135"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.5930153346624495E-3"/>
+              <c:y val="0.45468393452871769"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288010472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
+      <xdr:colOff>203834</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>241172</xdr:rowOff>
     </xdr:to>
@@ -244,7 +3971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3133724" y="3600449"/>
+          <a:off x="2771774" y="3600449"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -284,15 +4011,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>222884</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>250697</xdr:rowOff>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>269747</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -301,7 +4028,235 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3057524" y="3752849"/>
+          <a:off x="2705099" y="3019424"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Up Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705099" y="2381249"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Up Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705099" y="3286124"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Up Arrow 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714624" y="542924"/>
+          <a:ext cx="137160" cy="155448"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00FF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>231647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Up Arrow 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2714624" y="2066924"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -342,30 +4297,30 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>250697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Up Arrow 5"/>
+        <xdr:cNvPr id="10" name="Up Arrow 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3133724" y="3286124"/>
+        <a:xfrm rot="10800000">
+          <a:off x="2714624" y="866774"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00FF00"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -398,24 +4353,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>231647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Up Arrow 6"/>
+        <xdr:cNvPr id="16" name="Up Arrow 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133724" y="2676524"/>
+          <a:off x="2771774" y="1762124"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -456,23 +4411,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>250697</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>241172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Up Arrow 11"/>
+        <xdr:cNvPr id="14" name="Up Arrow 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124199" y="1171574"/>
+          <a:off x="2705099" y="2686049"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -512,81 +4467,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Up Arrow 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3047999" y="857249"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>222884</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>231647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Up Arrow 13"/>
+        <xdr:cNvPr id="17" name="Up Arrow 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3047999" y="1762124"/>
+          <a:off x="2724149" y="1152524"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -623,61 +4521,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>213359</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Up Arrow 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3133724" y="1466849"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -980,262 +4891,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="I7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="D12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
+      <c r="E14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12">
-        <v>-2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <v>8</v>
-      </c>
-      <c r="D13" s="12">
-        <v>-3</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1244,8 +5194,1866 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D10 D4:D5" numberStoredAsText="1"/>
+    <ignoredError sqref="D7 D12 D9:D10 D3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>259.3</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,$A$16:$C$27,3,FALSE)</f>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="E2">
+        <f>C2-G2</f>
+        <v>259.3</v>
+      </c>
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>-20.300000000000011</v>
+      </c>
+      <c r="G2">
+        <f>IF(F2&gt;0,F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(F2&lt;0,F2,0)</f>
+        <v>-20.300000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>242.3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">VLOOKUP(A3,$A$16:$C$27,3,FALSE)</f>
+        <v>232.7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="1">C3-G3</f>
+        <v>232.7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="2">C3-D3</f>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="3">IF(F3&gt;0,F3,0)</f>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="4">IF(F3&lt;0,F3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>239.3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>243.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>239.3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-4.1999999999999886</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>-4.1999999999999886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>220.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>216.8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>216.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>201.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>217.2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>201.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-15.699999999999989</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>-15.699999999999989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>197</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>178.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>178.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>18.800000000000011</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>18.800000000000011</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>195.7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>222.3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>195.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-26.600000000000023</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>-26.600000000000023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>193.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>232.3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>193.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-38.800000000000011</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>-38.800000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>175.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>160.1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>160.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>158</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>177.4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-19.400000000000006</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>-19.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>112.7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>93.8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>93.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>18.900000000000006</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>18.900000000000006</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(F2:F13)</f>
+        <v>-54.800000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>279.60000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>243.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>232.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>232.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>222.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>217.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>216.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>178.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>93.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP($A2,A$17:C$28,3,FALSE)</f>
+        <v>238</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP($A2,D$17:F$28,3,FALSE)</f>
+        <v>242.7</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP($A2,G$17:I$28,3,FALSE)</f>
+        <v>234.8</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2,J$17:L$28,3,FALSE)</f>
+        <v>243.5</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP($A2,M$17:O$28,3,FALSE)</f>
+        <v>239.3</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP($A2,P$17:R$28,3,FALSE)</f>
+        <v>251.7</v>
+      </c>
+      <c r="H2" t="e">
+        <f>VLOOKUP($A2,S$17:U$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <f>VLOOKUP($A2,V$17:X$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <f>VLOOKUP($A2,Y$17:AA$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <f>VLOOKUP($A2,AB$17:AD$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">VLOOKUP($A3,A$17:C$28,3,FALSE)</f>
+        <v>267.7</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="1">VLOOKUP($A3,D$17:F$28,3,FALSE)</f>
+        <v>273.8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="2">VLOOKUP($A3,G$17:I$28,3,FALSE)</f>
+        <v>277.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="3">VLOOKUP($A3,J$17:L$28,3,FALSE)</f>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="4">VLOOKUP($A3,M$17:O$28,3,FALSE)</f>
+        <v>259.3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="5">VLOOKUP($A3,P$17:R$28,3,FALSE)</f>
+        <v>248.1</v>
+      </c>
+      <c r="H3" t="e">
+        <f t="shared" ref="H3:H13" si="6">VLOOKUP($A3,S$17:U$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I13" si="7">VLOOKUP($A3,V$17:X$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J13" si="8">VLOOKUP($A3,Y$17:AA$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K13" si="9">VLOOKUP($A3,AB$17:AD$28,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>227.8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>242.1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>232.7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>242.3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>239.6</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>203.8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>189.2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>205.2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>216.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>220.2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>233.7</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>212.9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>203.8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>178.2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>215.9</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>251.5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>245.3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>212.1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>217.2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>201.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>215.6</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>211.6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>227.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>250.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>232.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>193.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>184.6</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>188.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>175.4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>180.8</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>225.8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>232.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>231.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>222.3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>195.7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>179.1</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>178.8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>186.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>177.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>174.4</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>137.4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>150.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>140.30000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>160.1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>162.5</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>156.9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>146.69999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>93.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>112.7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>113.5</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>267.7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>273.8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>277.2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>259.3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>251.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>251.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>245.3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>250.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>243.5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>242.3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>248.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>242.7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>234.8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>232.7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>239.3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>227.8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>242.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>231.4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>232.3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>220.2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>233.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>225.8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>232.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>222</v>
+      </c>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>222.3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>201.5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>215.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>212.9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>227.6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>212.1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>217.2</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>197</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>215.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>211.6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>203.8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>205.2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>216.8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>195.7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>184.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>203.8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>189.2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>188.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>178.2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>193.5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>186.4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>177.4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>175.4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>179.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>178.8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>160.1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>156.9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>150.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>159</v>
+      </c>
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>158</v>
+      </c>
+      <c r="P27" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>137.4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>93.8</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>112.7</v>
+      </c>
+      <c r="P28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>113.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Last Wk</t>
-  </si>
-  <si>
-    <t>WEEK 8</t>
   </si>
   <si>
     <t>Team</t>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>6-3</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
   </si>
 </sst>
 </file>
@@ -4894,7 +4894,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4909,7 +4909,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4947,10 +4947,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,10 +4967,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4987,12 +4987,12 @@
         <v>-1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4"/>
       <c r="I6" t="s">
@@ -5030,12 +5030,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5052,7 +5052,7 @@
         <v>-1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -5072,12 +5072,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5094,11 +5094,11 @@
         <v>14</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="4"/>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>-2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -5135,12 +5135,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,10 +5157,10 @@
         <v>-1</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5177,10 +5177,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,33 +5212,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5616,18 +5616,18 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>11</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>12</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <f>VLOOKUP($A2,A$17:C$28,3,FALSE)</f>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" si="0">VLOOKUP($A3,A$17:C$28,3,FALSE)</f>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -6347,42 +6347,42 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>37</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>39</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>40</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" t="s">
         <v>41</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>42</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Y16" t="s">
         <v>43</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AB16" t="s">
         <v>44</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AE16" t="s">
         <v>45</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6391,7 +6391,7 @@
         <v>267.7</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -6400,7 +6400,7 @@
         <v>273.8</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>277.2</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>279.60000000000002</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -6427,7 +6427,7 @@
         <v>259.3</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -6456,7 +6456,7 @@
         <v>245.3</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -6465,7 +6465,7 @@
         <v>250.5</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -6474,7 +6474,7 @@
         <v>243.5</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -6483,7 +6483,7 @@
         <v>242.3</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6503,7 +6503,7 @@
         <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -6512,7 +6512,7 @@
         <v>242.7</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -6521,7 +6521,7 @@
         <v>234.8</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -6530,7 +6530,7 @@
         <v>232.7</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -6539,7 +6539,7 @@
         <v>239.3</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6559,7 +6559,7 @@
         <v>227.8</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -6577,7 +6577,7 @@
         <v>231.4</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -6624,7 +6624,7 @@
         <v>232.4</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -6651,7 +6651,7 @@
         <v>201.5</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -6671,7 +6671,7 @@
         <v>212.9</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -6698,7 +6698,7 @@
         <v>217.2</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>6</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -6727,7 +6727,7 @@
         <v>211.6</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -6763,7 +6763,7 @@
         <v>195.7</v>
       </c>
       <c r="P23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -6792,7 +6792,7 @@
         <v>189.2</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -6801,7 +6801,7 @@
         <v>188.5</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -6810,7 +6810,7 @@
         <v>178.2</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>8</v>
@@ -6819,7 +6819,7 @@
         <v>193.5</v>
       </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -6839,7 +6839,7 @@
         <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -6848,7 +6848,7 @@
         <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>186.4</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -6866,7 +6866,7 @@
         <v>177.4</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>9</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -6895,7 +6895,7 @@
         <v>178.8</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -6904,7 +6904,7 @@
         <v>184</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -6913,7 +6913,7 @@
         <v>173</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -6922,7 +6922,7 @@
         <v>160.1</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -6931,7 +6931,7 @@
         <v>163.19999999999999</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>11</v>
@@ -6951,7 +6951,7 @@
         <v>156.9</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>11</v>
@@ -6960,7 +6960,7 @@
         <v>150.1</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>11</v>
@@ -6969,7 +6969,7 @@
         <v>146.69999999999999</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -6978,7 +6978,7 @@
         <v>159</v>
       </c>
       <c r="M27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>11</v>
@@ -6987,7 +6987,7 @@
         <v>158</v>
       </c>
       <c r="P27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q27">
         <v>11</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>12</v>
@@ -7007,7 +7007,7 @@
         <v>137.4</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>12</v>
@@ -7016,7 +7016,7 @@
         <v>146.30000000000001</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28">
         <v>12</v>
@@ -7025,7 +7025,7 @@
         <v>140.30000000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -7034,7 +7034,7 @@
         <v>93.8</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>12</v>
@@ -7043,7 +7043,7 @@
         <v>112.7</v>
       </c>
       <c r="P28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28">
         <v>12</v>

--- a/Outputs/RanksTable.xlsx
+++ b/Outputs/RanksTable.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>Rank</t>
   </si>
@@ -166,29 +167,80 @@
     <t>Week 14</t>
   </si>
   <si>
-    <t>4-5</t>
+    <t>Last week:</t>
   </si>
   <si>
-    <t>5-4</t>
+    <t>Make Play-Offs</t>
   </si>
   <si>
-    <t>3-6</t>
+    <t>'Pranay'</t>
   </si>
   <si>
-    <t>2-7</t>
+    <t>'Rohit'</t>
   </si>
   <si>
-    <t>6-3</t>
+    <t>'Matt'</t>
   </si>
   <si>
-    <t>WEEK 9</t>
+    <t>'Aksh'</t>
+  </si>
+  <si>
+    <t>'Caryn'</t>
+  </si>
+  <si>
+    <t>'Mili'</t>
+  </si>
+  <si>
+    <t>'Sher'</t>
+  </si>
+  <si>
+    <t>'Galit'</t>
+  </si>
+  <si>
+    <t>'Tony'</t>
+  </si>
+  <si>
+    <t>'Jeff'</t>
+  </si>
+  <si>
+    <t>'Wil'</t>
+  </si>
+  <si>
+    <t>'Char'</t>
+  </si>
+  <si>
+    <t>&lt;1%</t>
+  </si>
+  <si>
+    <t>&gt;99%</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +263,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +305,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,11 +341,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,10 +440,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,6 +494,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -303,511 +511,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>DeandreSSSS Hopkins</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Taniquetil Eagles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Last Manning Standing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Life of Julio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Flacco's Favorites</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fae Cthae</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Team Suckerpunch</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G-Lit</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gotta Catch Jamaal!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Winter Is Never Coming</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Fortune Favors the Bold</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Do You Even Lift?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>259.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>232.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>239.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>216.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>178.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>195.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>193.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>160.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70A8-4B84-AC05-F16E2855C62E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>positives</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>DeandreSSSS Hopkins</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Taniquetil Eagles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Last Manning Standing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Life of Julio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Flacco's Favorites</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fae Cthae</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Team Suckerpunch</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G-Lit</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gotta Catch Jamaal!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Winter Is Never Coming</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Fortune Favors the Bold</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Do You Even Lift?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6000000000000227</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3999999999999773</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.900000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-70A8-4B84-AC05-F16E2855C62E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>negatives</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>DeandreSSSS Hopkins</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Taniquetil Eagles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Last Manning Standing</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>The Life of Julio</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Flacco's Favorites</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fae Cthae</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Team Suckerpunch</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>G-Lit</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Gotta Catch Jamaal!</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Winter Is Never Coming</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Fortune Favors the Bold</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Do You Even Lift?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$H$2:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-20.300000000000011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.1999999999999886</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15.699999999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-26.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-38.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-19.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-70A8-4B84-AC05-F16E2855C62E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="291438872"/>
-        <c:axId val="291439528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="291438872"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="291439528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="291439528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291438872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -896,7 +599,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeandreSSSS Hopkin</c:v>
+                  <c:v>&gt;Taniquetil Eagles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -963,10 +666,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -984,33 +687,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$G$2</c:f>
+              <c:f>Sheet3!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>238</c:v>
+                  <c:v>275.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.7</c:v>
+                  <c:v>276.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234.8</c:v>
+                  <c:v>270.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243.5</c:v>
+                  <c:v>282.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.3</c:v>
+                  <c:v>257.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251.7</c:v>
+                  <c:v>248.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;Taniquetil Eagles</c:v>
+                  <c:v>DeandreSSSS Hopkin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1098,10 +807,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1119,33 +828,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$G$3</c:f>
+              <c:f>Sheet3!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>267.7</c:v>
+                  <c:v>229.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.8</c:v>
+                  <c:v>240.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277.2</c:v>
+                  <c:v>246.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>279.60000000000002</c:v>
+                  <c:v>242.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>259.3</c:v>
+                  <c:v>239.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>248.1</c:v>
+                  <c:v>255.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,10 +948,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1254,33 +969,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$G$4</c:f>
+              <c:f>Sheet3!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>227.8</c:v>
+                  <c:v>226.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.1</c:v>
+                  <c:v>242.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222</c:v>
+                  <c:v>224.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232.7</c:v>
+                  <c:v>232.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>242.3</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>239.6</c:v>
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1022,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>The Life of Julio</c:v>
+                  <c:v>Fae Cthae</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1368,10 +1089,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1389,33 +1110,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$5:$G$5</c:f>
+              <c:f>Sheet3!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>203.8</c:v>
+                  <c:v>250.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189.2</c:v>
+                  <c:v>250.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205.2</c:v>
+                  <c:v>213.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>216.8</c:v>
+                  <c:v>223.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.2</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>233.7</c:v>
+                  <c:v>217.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,10 +1230,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1524,33 +1251,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$6:$G$6</c:f>
+              <c:f>Sheet3!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>203.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>212.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>203.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>178.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>215.9</c:v>
+                <c:pt idx="6">
+                  <c:v>225.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,7 +1304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fae Cthae</c:v>
+                  <c:v>The Life of Julio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1638,10 +1371,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1659,33 +1392,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$7:$G$7</c:f>
+              <c:f>Sheet3!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>251.5</c:v>
+                  <c:v>212.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245.3</c:v>
+                  <c:v>189.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212.1</c:v>
+                  <c:v>200.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.2</c:v>
+                  <c:v>224.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>201.5</c:v>
+                  <c:v>211.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215.6</c:v>
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,7 +1445,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;Team  Suckerpunch</c:v>
+                  <c:v>Gotta Catch Jamaal!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1780,10 +1519,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1801,33 +1540,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$8:$G$8</c:f>
+              <c:f>Sheet3!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>211.6</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>227.6</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.5</c:v>
+                  <c:v>232.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232.3</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.5</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>184.6</c:v>
+                  <c:v>188.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,7 +1593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G - Lit</c:v>
+                  <c:v>&gt;Team  Suckerpunch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,10 +1667,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -1943,33 +1688,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$9:$G$9</c:f>
+              <c:f>Sheet3!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>189</c:v>
+                  <c:v>213.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184</c:v>
+                  <c:v>227.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.5</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>220.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175.4</c:v>
+                  <c:v>186.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.8</c:v>
+                  <c:v>200.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>194.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1990,7 +1741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gotta Catch Jamaal!</c:v>
+                  <c:v>G - Lit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2064,10 +1815,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2085,33 +1836,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$G$10</c:f>
+              <c:f>Sheet3!$B$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.8</c:v>
+                  <c:v>192.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232.4</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231.4</c:v>
+                  <c:v>186.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.3</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.7</c:v>
+                  <c:v>178.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179.1</c:v>
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,10 +1963,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2227,33 +1984,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$11:$G$11</c:f>
+              <c:f>Sheet3!$B$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>178.8</c:v>
+                  <c:v>179.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185</c:v>
+                  <c:v>186.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>186.4</c:v>
+                  <c:v>191.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177.4</c:v>
+                  <c:v>175.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158</c:v>
+                  <c:v>159.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174.4</c:v>
+                  <c:v>185.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,7 +2037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;Fortune Favors The Bold</c:v>
+                  <c:v>&gt;Do You Even Lift?</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2348,10 +2111,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2369,33 +2132,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$12:$G$12</c:f>
+              <c:f>Sheet3!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>137.4</c:v>
+                  <c:v>159.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.1</c:v>
+                  <c:v>147.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140.30000000000001</c:v>
+                  <c:v>146.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.1</c:v>
+                  <c:v>94.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163.19999999999999</c:v>
+                  <c:v>123.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.5</c:v>
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>145.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2416,7 +2185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;Do You Even Lift?</c:v>
+                  <c:v>&gt;Fortune Favors The Bold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2490,10 +2259,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$G$1</c:f>
+              <c:f>Sheet3!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2511,33 +2280,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$B$13:$G$13</c:f>
+              <c:f>Sheet3!$B$13:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>156.9</c:v>
+                  <c:v>143.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146.30000000000001</c:v>
+                  <c:v>155.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146.69999999999999</c:v>
+                  <c:v>140.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.8</c:v>
+                  <c:v>162.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.7</c:v>
+                  <c:v>164.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.5</c:v>
+                  <c:v>154.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.19999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,7 +2339,6 @@
         <c:axId val="288010472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9"/>
           <c:min val="4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2796,6 +2570,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79488909952697306"/>
+          <c:y val="0.13316712207688619"/>
+          <c:w val="0.19599928207143197"/>
+          <c:h val="0.79261168329318166"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2825,6 +2609,511 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>239.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>179.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>112.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79999999999999716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>negatives</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Taniquetil Eagles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DeandreSSSS Hopkins</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Manning Standing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fae Cthae</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flacco's Favorites</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Life of Julio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gotta Catch Jamaal!</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Team Suckerpunch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G-Lit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Winter Is Never Coming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Do You Even Lift?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fortune Favors the Bold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.200000000000017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.9000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.69999999999998863</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70A8-4B84-AC05-F16E2855C62E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="291438872"/>
+        <c:axId val="291439528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291438872"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291439528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291439528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291438872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2943,6 +3232,508 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3447,522 +4238,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
+      <xdr:colOff>213359</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>250697</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3971,7 +4260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2771774" y="3600449"/>
+          <a:off x="2714624" y="3914774"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -4126,14 +4415,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>222122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4142,7 +4431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705099" y="3286124"/>
+          <a:off x="2705099" y="3581399"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -4354,14 +4643,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203834</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>222122</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4370,7 +4659,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771774" y="1762124"/>
+          <a:off x="2705099" y="1447799"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -4412,70 +4701,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>203834</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>241172</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Up Arrow 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705099" y="2686049"/>
-          <a:ext cx="137160" cy="155448"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00FF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>222884</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>231647</xdr:rowOff>
+      <xdr:rowOff>260222</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4484,7 +4716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2724149" y="1152524"/>
+          <a:off x="2705099" y="2705099"/>
           <a:ext cx="137160" cy="155448"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -4528,16 +4760,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4563,16 +4795,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4893,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4908,13 +5140,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4938,19 +5170,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4958,7 +5190,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -4967,10 +5199,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,13 +5213,13 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5000,20 +5232,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4"/>
+        <v>66</v>
+      </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,13 +5255,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -5043,19 +5274,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
         <v>5</v>
-      </c>
-      <c r="D8" s="10">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5063,21 +5294,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5085,20 +5316,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4"/>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5106,19 +5337,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
       <c r="D11" s="10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,13 +5360,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5148,19 +5379,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>-1</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5168,19 +5399,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,7 +5425,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D7 D12 D9:D10 D3" numberStoredAsText="1"/>
+    <ignoredError sqref="D13 D9:D10 D6 D3" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5202,559 +5433,1399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="O11" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
+        <v>12</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>VLOOKUP($A2,A$17:C$28,3,FALSE)</f>
+        <v>275.60000000000002</v>
       </c>
       <c r="C2">
-        <v>259.3</v>
+        <f>VLOOKUP($A2,D$17:F$28,3,FALSE)</f>
+        <v>276.3</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(A2,$A$16:$C$27,3,FALSE)</f>
-        <v>279.60000000000002</v>
+        <f>VLOOKUP($A2,G$17:I$28,3,FALSE)</f>
+        <v>270.3</v>
       </c>
       <c r="E2">
-        <f>C2-G2</f>
-        <v>259.3</v>
+        <f>VLOOKUP($A2,J$17:L$28,3,FALSE)</f>
+        <v>282.3</v>
       </c>
       <c r="F2">
-        <f>C2-D2</f>
-        <v>-20.300000000000011</v>
+        <f>VLOOKUP($A2,M$17:O$28,3,FALSE)</f>
+        <v>257.8</v>
       </c>
       <c r="G2">
-        <f>IF(F2&gt;0,F2,0)</f>
-        <v>0</v>
+        <f>VLOOKUP($A2,P$17:R$28,3,FALSE)</f>
+        <v>248.1</v>
       </c>
       <c r="H2">
-        <f>IF(F2&lt;0,F2,0)</f>
-        <v>-20.300000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>VLOOKUP($A2,S$17:U$28,3,FALSE)</f>
+        <v>255.4</v>
+      </c>
+      <c r="I2" t="e">
+        <f>VLOOKUP($A2,V$17:X$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J2" t="e">
+        <f>VLOOKUP($A2,Y$17:AA$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" t="e">
+        <f>VLOOKUP($A2,AB$17:AD$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B13" si="0">VLOOKUP($A3,A$17:C$28,3,FALSE)</f>
+        <v>229.4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="1">VLOOKUP($A3,D$17:F$28,3,FALSE)</f>
+        <v>240.1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="2">VLOOKUP($A3,G$17:I$28,3,FALSE)</f>
+        <v>246.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="3">VLOOKUP($A3,J$17:L$28,3,FALSE)</f>
+        <v>242.1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="4">VLOOKUP($A3,M$17:O$28,3,FALSE)</f>
+        <v>239.9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="5">VLOOKUP($A3,P$17:R$28,3,FALSE)</f>
+        <v>255.9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="6">VLOOKUP($A3,S$17:U$28,3,FALSE)</f>
+        <v>246.5</v>
+      </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I13" si="7">VLOOKUP($A3,V$17:X$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J13" si="8">VLOOKUP($A3,Y$17:AA$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K13" si="9">VLOOKUP($A3,AB$17:AD$28,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>242.3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">VLOOKUP(A3,$A$16:$C$27,3,FALSE)</f>
-        <v>232.7</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E13" si="1">C3-G3</f>
-        <v>232.7</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F13" si="2">C3-D3</f>
-        <v>9.6000000000000227</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="3">IF(F3&gt;0,F3,0)</f>
-        <v>9.6000000000000227</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="4">IF(F3&lt;0,F3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
       <c r="B4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>226.8</v>
       </c>
       <c r="C4">
-        <v>239.3</v>
+        <f t="shared" si="1"/>
+        <v>242.5</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
+        <v>224.7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>232.3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>233.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>237.9</v>
+      </c>
+      <c r="I4" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <f t="shared" si="0"/>
-        <v>243.5</v>
-      </c>
-      <c r="E4">
+        <v>250.9</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="1"/>
-        <v>239.3</v>
-      </c>
-      <c r="F4">
+        <v>250.7</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="2"/>
-        <v>-4.1999999999999886</v>
-      </c>
-      <c r="G4">
+        <v>213.8</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H4">
+        <v>223.4</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="4"/>
-        <v>-4.1999999999999886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>217.6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>235.4</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>203.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>188.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>179.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>186.9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>202.3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>212.9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>225.5</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>220.2</v>
-      </c>
-      <c r="D5">
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>216.8</v>
-      </c>
-      <c r="E5">
+        <v>212.5</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
-        <v>216.8</v>
-      </c>
-      <c r="F5">
+        <v>189.2</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="2"/>
-        <v>3.3999999999999773</v>
-      </c>
-      <c r="G5">
+        <v>200.1</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="3"/>
-        <v>3.3999999999999773</v>
-      </c>
-      <c r="H5">
+        <v>224.2</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>201.5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>217.2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>201.5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-15.699999999999989</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>-15.699999999999989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>197</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>178.2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>178.2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>18.800000000000011</v>
+        <v>211.8</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>18.800000000000011</v>
+        <f t="shared" si="5"/>
+        <v>226</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>203.6</v>
+      </c>
+      <c r="I7" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>223</v>
       </c>
       <c r="C8">
-        <v>195.7</v>
+        <f t="shared" si="1"/>
+        <v>236</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>222.3</v>
+        <f t="shared" si="2"/>
+        <v>232.6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>195.7</v>
+        <f t="shared" si="3"/>
+        <v>218</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>-26.600000000000023</v>
+        <f t="shared" si="4"/>
+        <v>199</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>188.3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>-26.600000000000023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>196.7</v>
+      </c>
+      <c r="I8" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>213.8</v>
       </c>
       <c r="C9">
-        <v>193.5</v>
+        <f t="shared" si="1"/>
+        <v>227.6</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>232.3</v>
+        <f t="shared" si="2"/>
+        <v>246</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>193.5</v>
+        <f t="shared" si="3"/>
+        <v>220.9</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>-38.800000000000011</v>
+        <f t="shared" si="4"/>
+        <v>186.9</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>200.9</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>-38.800000000000011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>194.5</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>192.3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>186.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>178.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>186.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>191.8</v>
+      </c>
+      <c r="I10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>179.3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>186.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>191.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>175.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>159.69999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>185.2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>175.1</v>
+      </c>
+      <c r="I11" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>159.4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>147.19999999999999</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>146.30000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>94.6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>123.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>121.6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>145.6</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>143.30000000000001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>155.9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>140.30000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>162.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>164.3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>154.4</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>144.19999999999999</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>276.3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>270.3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>282.3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>257.8</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>255.9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>255.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>250.9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>250.7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>246.5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>242.1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>248</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>248.1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>229.4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>242.5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>246</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>232.3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>239.9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>233.5</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>237.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>226.8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>240.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>232.6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>224.2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>211.8</v>
+      </c>
+      <c r="P20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>226</v>
+      </c>
+      <c r="S20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+      <c r="U20">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>223</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>236</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>224.7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>223.4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>210</v>
+      </c>
+      <c r="P21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>217.6</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>213.8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>227.6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>213.8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>220.9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>202.3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>212.9</v>
+      </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>203.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>212.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>189.2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
+        <v>200.1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>218</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>199</v>
+      </c>
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>200.9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>196.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>203.8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>188.1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>191.8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>186.9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>186.9</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24">
+        <v>188.3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C25">
+        <v>192.3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>186.9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>186.3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
         <v>175.4</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>159</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>16.400000000000006</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>9</v>
+      </c>
+      <c r="O25">
+        <v>178.9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+      <c r="R25">
+        <v>186.1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25">
+        <v>9</v>
+      </c>
+      <c r="U25">
+        <v>191.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>179.3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>179.5</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="K26">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>163.19999999999999</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>160.1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>160.1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>3.0999999999999943</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>3.0999999999999943</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="L26">
+        <v>162.6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>164.3</v>
+      </c>
+      <c r="P26" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>158</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>177.4</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-19.400000000000006</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>-19.400000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>112.7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>93.8</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>93.8</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>18.900000000000006</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>18.900000000000006</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <f>SUM(F2:F13)</f>
-        <v>-54.800000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>279.60000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>243.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>232.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>232.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>222.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="Q26">
         <v>10</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>217.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>216.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>178.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="R26">
+        <v>185.2</v>
+      </c>
+      <c r="S26" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>177.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
+      <c r="T26">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>160.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>175.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>159.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>155.9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>160</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>154.4</v>
+      </c>
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27">
+        <v>11</v>
+      </c>
+      <c r="U27">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>12</v>
       </c>
-      <c r="C27">
-        <v>93.8</v>
+      <c r="C28">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>94.6</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>123.2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>121.6</v>
+      </c>
+      <c r="S28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28">
+        <v>12</v>
+      </c>
+      <c r="U28">
+        <v>144.19999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5765,622 +6836,433 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>4</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
-      </c>
-      <c r="E1">
-        <v>7</v>
-      </c>
-      <c r="F1">
-        <v>8</v>
-      </c>
-      <c r="G1">
-        <v>9</v>
-      </c>
-      <c r="H1">
-        <v>10</v>
-      </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
-        <v>12</v>
-      </c>
-      <c r="K1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP($A2,A$17:C$28,3,FALSE)</f>
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f>VLOOKUP($A2,D$17:F$28,3,FALSE)</f>
-        <v>242.7</v>
+        <v>251.7</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP($A2,G$17:I$28,3,FALSE)</f>
-        <v>234.8</v>
+        <f>VLOOKUP(A2,$A$17:$C$28,3,FALSE)</f>
+        <v>239.3</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP($A2,J$17:L$28,3,FALSE)</f>
-        <v>243.5</v>
+        <f>C2-G2</f>
+        <v>239.3</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP($A2,M$17:O$28,3,FALSE)</f>
-        <v>239.3</v>
+        <f>C2-D2</f>
+        <v>12.399999999999977</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP($A2,P$17:R$28,3,FALSE)</f>
-        <v>251.7</v>
-      </c>
-      <c r="H2" t="e">
-        <f>VLOOKUP($A2,S$17:U$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="e">
-        <f>VLOOKUP($A2,V$17:X$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" t="e">
-        <f>VLOOKUP($A2,Y$17:AA$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K2" t="e">
-        <f>VLOOKUP($A2,AB$17:AD$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <f>IF(F2&gt;0,F2,0)</f>
+        <v>12.399999999999977</v>
+      </c>
+      <c r="H2">
+        <f>IF(F2&lt;0,F2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B13" si="0">VLOOKUP($A3,A$17:C$28,3,FALSE)</f>
-        <v>267.7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C13" si="1">VLOOKUP($A3,D$17:F$28,3,FALSE)</f>
-        <v>273.8</v>
+        <v>248.1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="2">VLOOKUP($A3,G$17:I$28,3,FALSE)</f>
-        <v>277.2</v>
+        <f t="shared" ref="D3:D13" si="0">VLOOKUP(A3,$A$17:$C$28,3,FALSE)</f>
+        <v>259.3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="3">VLOOKUP($A3,J$17:L$28,3,FALSE)</f>
-        <v>279.60000000000002</v>
+        <f t="shared" ref="E3:E13" si="1">C3-G3</f>
+        <v>248.1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F13" si="4">VLOOKUP($A3,M$17:O$28,3,FALSE)</f>
-        <v>259.3</v>
+        <f t="shared" ref="F3:F13" si="2">C3-D3</f>
+        <v>-11.200000000000017</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="5">VLOOKUP($A3,P$17:R$28,3,FALSE)</f>
-        <v>248.1</v>
-      </c>
-      <c r="H3" t="e">
-        <f t="shared" ref="H3:H13" si="6">VLOOKUP($A3,S$17:U$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ref="I3:I13" si="7">VLOOKUP($A3,V$17:X$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" t="e">
-        <f t="shared" ref="J3:J13" si="8">VLOOKUP($A3,Y$17:AA$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K3" t="e">
-        <f t="shared" ref="K3:K13" si="9">VLOOKUP($A3,AB$17:AD$28,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G13" si="3">IF(F3&gt;0,F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="4">IF(F3&lt;0,F3,0)</f>
+        <v>-11.200000000000017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>239.6</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>227.8</v>
-      </c>
-      <c r="C4">
+        <v>242.3</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>242.1</v>
-      </c>
-      <c r="D4">
+        <v>239.6</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-      <c r="E4">
+        <v>-2.7000000000000171</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="3"/>
-        <v>232.7</v>
-      </c>
-      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="4"/>
-        <v>242.3</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="5"/>
-        <v>239.6</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-2.7000000000000171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>233.7</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>203.8</v>
-      </c>
-      <c r="C5">
+        <v>220.2</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
-        <v>189.2</v>
-      </c>
-      <c r="D5">
+        <v>220.2</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="2"/>
-        <v>205.2</v>
-      </c>
-      <c r="E5">
+        <v>13.5</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="3"/>
-        <v>216.8</v>
-      </c>
-      <c r="F5">
+        <v>13.5</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="4"/>
-        <v>220.2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="5"/>
-        <v>233.7</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K5" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>215.9</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>212.9</v>
-      </c>
-      <c r="C6">
+        <v>197</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>203.8</v>
-      </c>
-      <c r="D6">
+        <v>197</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="2"/>
-        <v>173</v>
-      </c>
-      <c r="E6">
+        <v>18.900000000000006</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="3"/>
-        <v>178.2</v>
-      </c>
-      <c r="F6">
+        <v>18.900000000000006</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="4"/>
-        <v>197</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="5"/>
-        <v>215.9</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I6" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K6" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>215.6</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>251.5</v>
-      </c>
-      <c r="C7">
+        <v>201.5</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>245.3</v>
-      </c>
-      <c r="D7">
+        <v>201.5</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>212.1</v>
-      </c>
-      <c r="E7">
+        <v>14.099999999999994</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>217.2</v>
-      </c>
-      <c r="F7">
+        <v>14.099999999999994</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
-        <v>201.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="5"/>
-        <v>215.6</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I7" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K7" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>184.6</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>211.6</v>
-      </c>
-      <c r="C8">
+        <v>193.5</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
-        <v>227.6</v>
-      </c>
-      <c r="D8">
+        <v>184.6</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>250.5</v>
-      </c>
-      <c r="E8">
+        <v>-8.9000000000000057</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>232.3</v>
-      </c>
-      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>193.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>184.6</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-8.9000000000000057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>180.8</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="C9">
+        <v>175.4</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="D9">
+        <v>175.4</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>188.5</v>
-      </c>
-      <c r="E9">
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="F9">
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>175.4</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>180.8</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>179.1</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>225.8</v>
-      </c>
-      <c r="C10">
+        <v>195.7</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
-        <v>232.4</v>
-      </c>
-      <c r="D10">
+        <v>179.1</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>231.4</v>
-      </c>
-      <c r="E10">
+        <v>-16.599999999999994</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>222.3</v>
-      </c>
-      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>195.7</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>179.1</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-16.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>174.4</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>178.8</v>
-      </c>
-      <c r="C11">
+        <v>158</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="D11">
+        <v>158</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>186.4</v>
-      </c>
-      <c r="E11">
+        <v>16.400000000000006</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>177.4</v>
-      </c>
-      <c r="F11">
+        <v>16.400000000000006</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>158</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>174.4</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>162.5</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>137.4</v>
-      </c>
-      <c r="C12">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
-        <v>150.1</v>
-      </c>
-      <c r="D12">
+        <v>162.5</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>140.30000000000001</v>
-      </c>
-      <c r="E12">
+        <v>-0.69999999999998863</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>160.1</v>
-      </c>
-      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="4"/>
-        <v>163.19999999999999</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>162.5</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>-0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>113.5</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>156.9</v>
-      </c>
-      <c r="C13">
+        <v>112.7</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
-        <v>146.30000000000001</v>
-      </c>
-      <c r="D13">
+        <v>112.7</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>146.69999999999999</v>
-      </c>
-      <c r="E13">
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>93.8</v>
-      </c>
-      <c r="F13">
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="4"/>
-        <v>112.7</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>113.5</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F2:F13)</f>
+        <v>41.399999999999963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -6388,111 +7270,21 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>267.7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>273.8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>277.2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>279.60000000000002</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
         <v>259.3</v>
       </c>
-      <c r="P17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>251.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>251.5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>245.3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>250.5</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>243.5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
         <v>242.3</v>
       </c>
-      <c r="P18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
-        <v>248.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6500,167 +7292,32 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>238</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>242.7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>234.8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>232.7</v>
-      </c>
-      <c r="M19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
         <v>239.3</v>
       </c>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>239.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>227.8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>242.1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>231.4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>232.3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
         <v>220.2</v>
       </c>
-      <c r="P20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>233.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>225.8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>232.4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>222</v>
-      </c>
-      <c r="J21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>222.3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
         <v>201.5</v>
       </c>
-      <c r="P21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21">
-        <v>215.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -6668,167 +7325,32 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>212.9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>227.6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>212.1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>217.2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
-      </c>
-      <c r="O22">
         <v>197</v>
       </c>
-      <c r="P22" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22">
-        <v>215.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23">
-        <v>211.6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <v>203.8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
-      <c r="I23">
-        <v>205.2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23">
-        <v>216.8</v>
-      </c>
-      <c r="M23" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="O23">
         <v>195.7</v>
       </c>
-      <c r="P23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>25</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
-      </c>
-      <c r="R23">
-        <v>184.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
       </c>
       <c r="B24">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>203.8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
-        <v>189.2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24">
-        <v>188.5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24">
-        <v>8</v>
-      </c>
-      <c r="L24">
-        <v>178.2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>8</v>
-      </c>
-      <c r="O24">
         <v>193.5</v>
       </c>
-      <c r="P24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-      <c r="R24">
-        <v>180.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6836,224 +7358,341 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>189</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25">
-        <v>186.4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25">
-        <v>177.4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <v>9</v>
-      </c>
-      <c r="O25">
         <v>175.4</v>
       </c>
-      <c r="P25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-      <c r="R25">
-        <v>179.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>178.8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>184</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
-        <v>173</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-      <c r="L26">
-        <v>160.1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26">
-        <v>10</v>
-      </c>
-      <c r="O26">
         <v>163.19999999999999</v>
       </c>
-      <c r="P26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>28</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-      <c r="R26">
-        <v>174.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27">
-        <v>156.9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>150.1</v>
-      </c>
-      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
-      <c r="I27">
-        <v>146.69999999999999</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27">
-        <v>11</v>
-      </c>
-      <c r="L27">
-        <v>159</v>
-      </c>
-      <c r="M27" t="s">
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <v>11</v>
-      </c>
-      <c r="O27">
-        <v>158</v>
-      </c>
-      <c r="P27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-      <c r="R27">
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>137.4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>146.30000000000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
-      </c>
-      <c r="I28">
-        <v>140.30000000000001</v>
-      </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28">
-        <v>12</v>
-      </c>
-      <c r="L28">
-        <v>93.8</v>
-      </c>
-      <c r="M28" t="s">
-        <v>29</v>
-      </c>
-      <c r="N28">
-        <v>12</v>
-      </c>
-      <c r="O28">
         <v>112.7</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q28">
-        <v>12</v>
-      </c>
-      <c r="R28">
-        <v>113.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.99163999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.98177999999999999</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.98806000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0.93657999999999997</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.98714000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.88722000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.71442000000000005</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.49325999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="20">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.36703999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0.17454</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.16797999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="20">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.11342000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="20">
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="C15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B14">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>